--- a/2023-2024/Data og lign/Slikvaegt.xlsx
+++ b/2023-2024/Data og lign/Slikvaegt.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Diameter i cm</t>
+          <t>Diameter i mm</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -447,266 +447,266 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n">
-        <v>14.699</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.48</v>
+        <v>29</v>
       </c>
       <c r="B3" t="n">
-        <v>6.211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.59</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>8.451000000000001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.47</v>
+        <v>26</v>
       </c>
       <c r="B5" t="n">
-        <v>19.747</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.41</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>18.309</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.09</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>14.906</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.88</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>26.001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>30.399</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.92</v>
+        <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>3.036</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.94</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>12.564</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.56</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>21.647</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.11</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>15.059</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.95</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1.933</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.93</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>4.093</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.72</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>2.403</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.02</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.199</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.67</v>
+        <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>22.937</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.21</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>16.025</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.77</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
-        <v>25.884</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.86</v>
+        <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>12.342</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2.9</v>
+        <v>11</v>
       </c>
       <c r="B22" t="n">
-        <v>11.82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.03</v>
+        <v>35</v>
       </c>
       <c r="B23" t="n">
-        <v>4.384</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>17.734</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2.09</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n">
-        <v>4.854</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.96</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>27.928</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.95</v>
+        <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>2.954</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.48</v>
+        <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>8.406000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.81</v>
+        <v>24</v>
       </c>
       <c r="B29" t="n">
-        <v>12.575</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.67</v>
+        <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>7.589</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.51</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20.022</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.96</v>
+        <v>26</v>
       </c>
       <c r="B32" t="n">
-        <v>29.116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.47</v>
+        <v>24</v>
       </c>
       <c r="B33" t="n">
-        <v>19.445</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.46</v>
+        <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>7.145</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
